--- a/Membership_Application.xlsx
+++ b/Membership_Application.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\research_and_deve\workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Learning Sesssions\MC4U_JAVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E550784-7C51-42C6-96C5-5A01DC1A16FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="db_details" sheetId="1" r:id="rId1"/>
     <sheet name="Group" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
   <si>
     <t>Tables</t>
   </si>
@@ -144,9 +143,6 @@
   </si>
   <si>
     <t>spa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salon </t>
   </si>
   <si>
     <t>hair_cutting + saving</t>
@@ -199,12 +195,75 @@
   </si>
   <si>
     <t>payment gateway integration</t>
+  </si>
+  <si>
+    <t>Harsh, Raunak, Sandarbh</t>
+  </si>
+  <si>
+    <t>Nishant, Swati, Ashutosh</t>
+  </si>
+  <si>
+    <t>Himanshu, Sudhir, Lovely</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Target End Date</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>Sudhir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lovely </t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>ToDo</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Add/Edit/Delete Package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fitness </t>
+  </si>
+  <si>
+    <t>yoga + fitness</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>Notification Handling</t>
+  </si>
+  <si>
+    <t>Membership Refistration completed</t>
+  </si>
+  <si>
+    <t>Membership renewal due</t>
+  </si>
+  <si>
+    <t>Membership expirig</t>
+  </si>
+  <si>
+    <t>duration_in_month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,7 +281,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +300,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -250,28 +327,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,6 +417,194 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12982574" y="1609725"/>
+          <a:ext cx="895351" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>Package</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10734676" y="1581151"/>
+          <a:ext cx="1095374" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>Organization</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>fitness</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100" baseline="0"/>
+            <a:t> first</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100" baseline="0"/>
+            <a:t>spa</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11830050" y="1881188"/>
+          <a:ext cx="1152524" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -551,36 +869,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -603,12 +920,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
@@ -628,12 +945,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
@@ -647,270 +964,542 @@
         <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="2" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="22">
+        <v>44531</v>
+      </c>
+      <c r="G13" s="3">
+        <v>12</v>
+      </c>
+      <c r="H13" s="23">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C15" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D17" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D18" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="16">
+        <v>3</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="6">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C21">
+      <c r="D21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C22">
+      <c r="D22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C24" s="1" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D25" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D26" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D27" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="6">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="2" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C30" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C31">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="6">
         <v>1</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31">
+      <c r="E32" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C32">
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="6">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32">
+      <c r="E33" s="6">
+        <v>2</v>
+      </c>
+      <c r="F33" s="6">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD52D06-B732-4570-9F8A-CEA6208836A6}">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="1" max="2" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="9">
+        <v>44532</v>
+      </c>
+      <c r="G2" s="9">
+        <v>44535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="9">
+        <v>44532</v>
+      </c>
+      <c r="G3" s="9">
+        <v>44535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="9">
+        <v>44532</v>
+      </c>
+      <c r="G4" s="9">
+        <v>44535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="9">
+        <v>44532</v>
+      </c>
+      <c r="G5" s="9">
+        <v>44535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="9">
+        <v>44531</v>
+      </c>
+      <c r="G7" s="9">
+        <v>44535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="9">
+        <v>44531</v>
+      </c>
+      <c r="G8" s="9">
+        <v>44535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="9">
+        <v>44531</v>
+      </c>
+      <c r="G9" s="9">
+        <v>44535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="9">
+        <v>44531</v>
+      </c>
+      <c r="G10" s="9">
+        <v>44535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="9">
+        <v>44531</v>
+      </c>
+      <c r="G11" s="9">
+        <v>44535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="9">
+        <v>44532</v>
+      </c>
+      <c r="G13" s="9">
+        <v>44535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="9">
+        <v>44532</v>
+      </c>
+      <c r="G14" s="9">
+        <v>44535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="9">
+        <v>44532</v>
+      </c>
+      <c r="G15" s="9">
+        <v>44535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="9">
+        <v>44532</v>
+      </c>
+      <c r="G16" s="9">
+        <v>44535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="21"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C7:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -924,12 +1513,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B528B330DD1DAD48983443F084F0DB82" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d9d44a49df6746799065339500998c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e7ff6786-8108-403b-97ea-309cd261fefd" xmlns:ns4="15af92fd-6710-45c8-966c-7a10f9a808ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74abce412bef0ae4ec47e038eeb2cdba" ns3:_="" ns4:_="">
     <xsd:import namespace="e7ff6786-8108-403b-97ea-309cd261fefd"/>
@@ -1100,6 +1683,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8432CB-B5B1-4321-AA77-846F574350BE}">
   <ds:schemaRefs>
@@ -1109,15 +1698,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC8B23BC-0B73-453D-A6F7-11545BC5B68F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875282C8-D1C3-4035-BFDF-F9D4AB22194E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1134,4 +1714,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC8B23BC-0B73-453D-A6F7-11545BC5B68F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="15af92fd-6710-45c8-966c-7a10f9a808ac"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e7ff6786-8108-403b-97ea-309cd261fefd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>